--- a/EVALUACIÓN/GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN/BAYESIAN-OPTIMIZATION ÁRBOL DE DECISIÓN/DIA_prediccion..xlsx
+++ b/EVALUACIÓN/GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN/BAYESIAN-OPTIMIZATION ÁRBOL DE DECISIÓN/DIA_prediccion..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\GRAFICOS DE BARRAS VARIABLES PREDICCION\BAYESIAN-OPTIMIZATION ARBOL DE DECISION\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\MINERIA DE DATOS ASESINATOS ZONA 8 DEL ECUADOR\EVALUACIÓN\GRÁFICOS DE BARRAS VARIABLES PREDICCIÓN\BAYESIAN-OPTIMIZATION ÁRBOL DE DECISIÓN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329EED28-6F30-408A-BF21-87FB108300E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8580F047-E31B-41E0-84B3-BAF929E6C07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,10 +37,10 @@
     <t>Miércoles</t>
   </si>
   <si>
-    <t>Jueves</t>
+    <t>Sábado, Domingo</t>
   </si>
   <si>
-    <t>Sábado, Domingo</t>
+    <t>Lunes, Jueves</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,7 @@
                   <c:v>Miércoles</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Jueves</c:v>
+                  <c:v>Lunes, Jueves</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1724,7 +1724,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1300</v>
@@ -1778,7 +1778,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>320</v>
